--- a/PROYECTOS/Proy_SSEL/Libreria en Produccion/Libreria de Trabajo/Documentacion/3. Requisitos/SSEL-LR.xlsx
+++ b/PROYECTOS/Proy_SSEL/Libreria en Produccion/Libreria de Trabajo/Documentacion/3. Requisitos/SSEL-LR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pulpin\Documents\GitHub\FISIDEVELOPS-G3\PROYECTOS\Proy_SSEL\Documentacion\3. Requisitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEO\Documents\GitHub\FISIDEVELOPS-G3\PROYECTOS\Proy_SSEL\Libreria en Produccion\Libreria de Trabajo\Documentacion\3. Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>N°</t>
   </si>
@@ -42,69 +42,18 @@
     <t>TIPO</t>
   </si>
   <si>
-    <t>Registro de subastador</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
     <t>Funcional</t>
   </si>
   <si>
-    <t>Registro de producto</t>
-  </si>
-  <si>
-    <t>Debido a que hay un producto por subastrar, se debe registrar las caracteristicas del producto</t>
-  </si>
-  <si>
     <t>Visualizar Subasta</t>
   </si>
   <si>
-    <t>Debido a que hay varios productos en subasta, se debe mostrar todos los productos que esta vigentes en la subasta</t>
-  </si>
-  <si>
-    <t>Evaluacion del articulo</t>
-  </si>
-  <si>
-    <t>El sistema debera evaluar si el articulo cumple los requisitos para ser subastado</t>
-  </si>
-  <si>
-    <t>Debido a que hay productos en mal estado y no se debe permitir subastar este producto, la subasta es para productos en buen estados</t>
-  </si>
-  <si>
     <t>Autenticar al Usuario</t>
   </si>
   <si>
-    <t>El sistema debera permitir que el usuario se loguee para poder participar en una subasta</t>
-  </si>
-  <si>
-    <t>Debido a que se debe de tener el control de que personas participan en una subasta</t>
-  </si>
-  <si>
-    <t>Apostar en una subasta</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir realizar apuestas en el tiempo de vigencia de la subasta</t>
-  </si>
-  <si>
-    <t>Debiso a que en una subasta, gana el que apuesta mas</t>
-  </si>
-  <si>
-    <t>Registrar Usuarios</t>
-  </si>
-  <si>
-    <t>Debido a que cualquier usuario puede participar en cualquier subasta</t>
-  </si>
-  <si>
-    <t>Autenticar al subastador</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir que el subastador se loguee para subastar su producto y establecer untiempo determinado</t>
-  </si>
-  <si>
-    <t>Debido a que el subastador tiene que tener el control de cuando y a que hora empieza y terminala subasta</t>
-  </si>
-  <si>
     <t>Concurrencia</t>
   </si>
   <si>
@@ -174,18 +123,9 @@
     <t>RF-02</t>
   </si>
   <si>
-    <t>RF-03</t>
-  </si>
-  <si>
-    <t>RF-04</t>
-  </si>
-  <si>
     <t>RF-05</t>
   </si>
   <si>
-    <t>RF-06</t>
-  </si>
-  <si>
     <t>RF-07</t>
   </si>
   <si>
@@ -213,34 +153,82 @@
     <t>CASO DE USO</t>
   </si>
   <si>
-    <t>Apostar</t>
-  </si>
-  <si>
-    <t>Registrar en sistema</t>
-  </si>
-  <si>
-    <t>Subastar Producto</t>
-  </si>
-  <si>
-    <t>Autenticar</t>
-  </si>
-  <si>
     <t>Visualizar subasta</t>
   </si>
   <si>
-    <t>El sistema deberá registrar el nombre, codigo subastador, item producto, categoria.</t>
-  </si>
-  <si>
-    <t>Debido a que se requiere tener un registro de los participantes que subastan su producto.</t>
-  </si>
-  <si>
-    <t>El sistema deberá registra el rnombre, dni, numero de cuenta, correo, direccion, ID de los usuarios que deseen participar en la subasta</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir registrar datos del productos (nombre, categoria, fecha inicio subasta, fecha de caducidad, precio base) a subastar</t>
-  </si>
-  <si>
-    <t>El sistema deberá mostrar los producto que se esta subastanado</t>
+    <t>Registro de Usuario</t>
+  </si>
+  <si>
+    <t>Debido a que se requiere tener un registro de los usuarios del sistema.</t>
+  </si>
+  <si>
+    <t>Registrar subasta</t>
+  </si>
+  <si>
+    <t>Debido a que el proceso principal del negocio es subastar, se requiere registrar el detalle de la subasta.</t>
+  </si>
+  <si>
+    <t>pujar una subasta</t>
+  </si>
+  <si>
+    <t>El sistema debe permititr que un usuario pueda realizar una puja ingresando un monto en una susbasta, previa verificaión del saldo con la  que cuenta.</t>
+  </si>
+  <si>
+    <t>Actividad necesaria para que se llegue a realizar una subasta</t>
+  </si>
+  <si>
+    <t>El sistema debe poder verificar que el usario que esta intentando ingresar se encuentre registrado y activo.</t>
+  </si>
+  <si>
+    <t>Debido a que solo los usuarios registrados pueden realizar una subast o una puja..</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a cualquier visitante de la plataforma (usuarios registrados y no registrados) visualizar las subastas que se encuentran vigentes. De la subasta se debe mostrar: el nombre del articulo, una imagen del articulo, la ultima puja realizada y fecha fin de la subasta. En caso que el visitante pulsara en mayor detalles el sistema debe  mostrar el detalle completo de la subasta.</t>
+  </si>
+  <si>
+    <t>Los usuarios deben poder visualizar las subastas vigentes para que decidan o no realizar una puja.</t>
+  </si>
+  <si>
+    <t>Visualizar Subastas realizadas</t>
+  </si>
+  <si>
+    <t>Se requiere que cada usuario registrado tenga informacion de tallada sobre sus subastas.</t>
+  </si>
+  <si>
+    <t>El ssitema deberá permitir a un usuario registrado visualizar las suabastas registradas por él. Se debe mostarar la siguiente informacion por cada subasta: fecha de registro, nombre del articulo, precio base, ultima puja, estado de la subasta.</t>
+  </si>
+  <si>
+    <t>El sistema debe registrar los siguientes datos del usuario: Nombres y apellidos, DNI, nombre de usuario, contraseña de usuario, correo electronico, telefono, dirección de domicilio (opcional), fecha de nacimiento.</t>
+  </si>
+  <si>
+    <t>Visualizar pujas realizadas</t>
+  </si>
+  <si>
+    <t>El ssitema deberá permitir a un usuario registrado visualizar las pujas realizadas por él. Se debe mostarar la siguiente informacion por cada puja realizada: codigo de subasta, nombre del articulo, valor de la puja realizada, ultima puja, fecha fin de la subasta, estado de la subasta.</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir registrar una subasta: nombre de articulo, categoria del articulo (El sistema debe prorporcionar un lista de categorias), descripcion del articulo, precio base del articulo, 5 imágenes del articulo, fecha inicio subasta, fecha fin de subasta, detalle  de la subasta, telefono de contacto, lugar de entrega.  Además el ssitema debe generara un codigo de identificacion de subasta.</t>
+  </si>
+  <si>
+    <t>Se requiere que cada usuario registrado tenga informacion detallada sobre las pujas realizadas.</t>
+  </si>
+  <si>
+    <t>Recargar Saldo</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir que un usuario registrado pueda recargar saldo a su cuenta.  El usuario tiene que ingresar el monto que desea recargar y la marca de la tarjeta con la que cuenta. (El sistema debe mostrar las opciones: Visa Y MasterCard), luego el sistema debera permitir el acceso a una POS-Virtual de una pasarela de pagos.</t>
+  </si>
+  <si>
+    <t>Debido que para realizar una puja se requiere tener saldo disponible.</t>
+  </si>
+  <si>
+    <t>Registrar Usuario</t>
+  </si>
+  <si>
+    <t>Ingresar al sistema</t>
+  </si>
+  <si>
+    <t>Pujar una subasta</t>
   </si>
 </sst>
 </file>
@@ -248,7 +236,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -275,7 +263,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +282,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -340,25 +334,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -395,19 +376,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -438,8 +434,8 @@
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>625927</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1092652</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>976425</xdr:rowOff>
     </xdr:to>
@@ -742,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -752,22 +748,22 @@
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
-    <col min="5" max="5" width="64.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="A3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
@@ -792,209 +788,201 @@
         <v>6</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H5" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="20" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="C9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="H9" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="20" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="H10" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="H11" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -1002,22 +990,22 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -1026,22 +1014,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H14" s="13"/>
     </row>
@@ -1050,22 +1038,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H15" s="13"/>
     </row>
@@ -1074,22 +1062,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H16" s="13"/>
     </row>
@@ -1098,22 +1086,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H17" s="13"/>
     </row>
@@ -1122,22 +1110,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H18" s="13"/>
     </row>
@@ -1172,11 +1160,8 @@
       <c r="D24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PROYECTOS/Proy_SSEL/Libreria en Produccion/Libreria de Trabajo/Documentacion/3. Requisitos/SSEL-LR.xlsx
+++ b/PROYECTOS/Proy_SSEL/Libreria en Produccion/Libreria de Trabajo/Documentacion/3. Requisitos/SSEL-LR.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEO\Documents\GitHub\FISIDEVELOPS-G3\PROYECTOS\Proy_SSEL\Libreria en Produccion\Libreria de Trabajo\Documentacion\3. Requisitos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>N°</t>
   </si>
@@ -132,12 +127,6 @@
     <t>RF-08</t>
   </si>
   <si>
-    <t>RNF-09</t>
-  </si>
-  <si>
-    <t>RNF-10</t>
-  </si>
-  <si>
     <t>RNF-11</t>
   </si>
   <si>
@@ -153,9 +142,6 @@
     <t>CASO DE USO</t>
   </si>
   <si>
-    <t>Visualizar subasta</t>
-  </si>
-  <si>
     <t>Registro de Usuario</t>
   </si>
   <si>
@@ -168,9 +154,6 @@
     <t>Debido a que el proceso principal del negocio es subastar, se requiere registrar el detalle de la subasta.</t>
   </si>
   <si>
-    <t>pujar una subasta</t>
-  </si>
-  <si>
     <t>El sistema debe permititr que un usuario pueda realizar una puja ingresando un monto en una susbasta, previa verificaión del saldo con la  que cuenta.</t>
   </si>
   <si>
@@ -204,12 +187,6 @@
     <t>Visualizar pujas realizadas</t>
   </si>
   <si>
-    <t>El ssitema deberá permitir a un usuario registrado visualizar las pujas realizadas por él. Se debe mostarar la siguiente informacion por cada puja realizada: codigo de subasta, nombre del articulo, valor de la puja realizada, ultima puja, fecha fin de la subasta, estado de la subasta.</t>
-  </si>
-  <si>
-    <t>El sistema deberá permitir registrar una subasta: nombre de articulo, categoria del articulo (El sistema debe prorporcionar un lista de categorias), descripcion del articulo, precio base del articulo, 5 imágenes del articulo, fecha inicio subasta, fecha fin de subasta, detalle  de la subasta, telefono de contacto, lugar de entrega.  Además el ssitema debe generara un codigo de identificacion de subasta.</t>
-  </si>
-  <si>
     <t>Se requiere que cada usuario registrado tenga informacion detallada sobre las pujas realizadas.</t>
   </si>
   <si>
@@ -229,6 +206,72 @@
   </si>
   <si>
     <t>Pujar una subasta</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir registrar una subasta: nombre de articulo, categoria del articulo (El sistema debe prorporcionar un lista de categorias), descripcion del articulo, precio base del articulo, 5 imágenes del articulo, fecha inicio subasta, fecha fin de subasta, detalle  de la subasta, telefono de contacto, lugar de entrega.  Además el sistema debe generara un codigo de identificacion de subasta.</t>
+  </si>
+  <si>
+    <t>RF-03</t>
+  </si>
+  <si>
+    <t>RF-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar Subastas </t>
+  </si>
+  <si>
+    <t>RF-06</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir a un usuario registrado visualizar las pujas realizadas por él. Se debe mostarar la siguiente informacion por cada puja realizada: codigo de subasta, nombre del articulo, valor de la puja realizada, ultima puja, fecha fin de la subasta, estado de la subasta.</t>
+  </si>
+  <si>
+    <t>Administrar cuentas</t>
+  </si>
+  <si>
+    <t>RF-09</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir operaciones CRUD utilizando un superusuario</t>
+  </si>
+  <si>
+    <t>Se requiere que la plataforma cuente con la opcion de gestion de cuenta.</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Visualizar Cuentas</t>
+  </si>
+  <si>
+    <t>Alta de Usuario</t>
+  </si>
+  <si>
+    <t>Baja de Usuario</t>
+  </si>
+  <si>
+    <t>Restablecer Contraseña</t>
+  </si>
+  <si>
+    <t>Eliminar Subasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF-10 </t>
+  </si>
+  <si>
+    <t>El sistema deberá permitir que el administrador pueda eliminar una subasta</t>
+  </si>
+  <si>
+    <t>Debido a que  la suabasta no se pueda realizar se requiera que el administrador elimine la subasta</t>
+  </si>
+  <si>
+    <t>Baja de Subasta</t>
+  </si>
+  <si>
+    <t>RNF-15</t>
+  </si>
+  <si>
+    <t>RNF-16</t>
   </si>
 </sst>
 </file>
@@ -238,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ &quot;€&quot;* #,##0.00_ ;_ &quot;€&quot;* \-#,##0.00_ ;_ &quot;€&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -250,17 +293,31 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -272,24 +329,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -313,15 +370,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -334,77 +382,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -728,7 +813,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -738,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,413 +840,499 @@
   <sheetData>
     <row r="2" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="E12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="20" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="16" t="s">
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="20" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="20" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="G21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="20" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="20" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="G23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:G3"/>
+  <mergeCells count="8">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="G13:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
